--- a/Running projects/Citi Bank Dolmen Sky Tower/PO/002- Purchase order- for Fire equipments - Fakhri.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/PO/002- Purchase order- for Fire equipments - Fakhri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9658415-B02E-4CDD-879D-612590664062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B11FCC-92EE-42CC-95E9-8F97F2C02C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -343,41 +343,44 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -868,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:I45"/>
+  <dimension ref="A10:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -919,54 +922,54 @@
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <v>1</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="20">
         <v>120</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="22">
         <v>1500</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <f>E19*C19</f>
         <v>180000</v>
       </c>
@@ -978,115 +981,115 @@
         <v>3015.0899999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+    <row r="20" spans="1:10" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
         <v>2</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="20">
         <v>60</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="22">
         <v>1500</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="23">
         <f t="shared" ref="F20:F24" si="0">E20*C20</f>
         <v>90000</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <v>3</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>23</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <v>5000</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="23">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30">
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <v>4</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>7</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <v>18000</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <f t="shared" si="0"/>
         <v>126000</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <v>5</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>7</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="22">
         <v>9000</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+    <row r="24" spans="1:10" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <v>6</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="20">
         <v>21</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <v>6500</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <f t="shared" si="0"/>
         <v>136500</v>
       </c>
@@ -1095,16 +1098,17 @@
         <f t="shared" ref="I24:I25" si="1">H24*1.17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="26">
         <f>SUM(F19:F24)</f>
         <v>710500</v>
       </c>
@@ -1114,14 +1118,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
       <c r="F26" s="17">
         <v>699820</v>
       </c>
@@ -1131,14 +1135,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
       <c r="F27" s="18">
         <f>F25-F26</f>
         <v>10680</v>
@@ -1149,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15"/>
@@ -1157,19 +1161,19 @@
       <c r="E28" s="16"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I32" s="6">
         <f t="shared" ref="I32:I45" si="3">H32*1.17</f>
         <v>0</v>

--- a/Running projects/Citi Bank Dolmen Sky Tower/PO/002- Purchase order- for Fire equipments - Fakhri.xlsx
+++ b/Running projects/Citi Bank Dolmen Sky Tower/PO/002- Purchase order- for Fire equipments - Fakhri.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Citi Bank Dolmen Sky Tower\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B11FCC-92EE-42CC-95E9-8F97F2C02C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738C8EF-552E-4A52-8E8A-822023551A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>S No.</t>
   </si>
@@ -54,16 +54,10 @@
     <t>Nos</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
     <t>Rate</t>
   </si>
   <si>
     <t>Amount</t>
-  </si>
-  <si>
-    <t>Total Amount (INCLUSIVE OF GST)</t>
   </si>
   <si>
     <t>M/S  Fakhri Brothers</t>
@@ -103,6 +97,9 @@
   <si>
     <t>Fire Extinghushers Type Class B&amp;C FX-3  (5 Kg. CO2 Carbon Dioxide Gas)
 Brand: NAFFCO</t>
+  </si>
+  <si>
+    <t>Advance paid</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,20 +326,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -370,6 +353,9 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -378,9 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -480,13 +463,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>374837</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -871,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:J45"/>
+  <dimension ref="A10:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -892,16 +875,16 @@
   <sheetData>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2"/>
       <c r="F10" s="4">
-        <v>45469</v>
+        <v>45484</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2"/>
     </row>
@@ -911,65 +894,65 @@
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+    <row r="16" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="18" spans="1:10" s="3" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>10</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="21">
         <v>1</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="20">
+      <c r="B19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14">
         <v>120</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="16">
         <v>1500</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="17">
         <f>E19*C19</f>
         <v>180000</v>
       </c>
@@ -982,68 +965,68 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="21">
         <v>2</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="20">
-        <v>60</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="B20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="14">
+        <v>17</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="16">
         <v>1500</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="17">
         <f t="shared" ref="F20:F24" si="0">E20*C20</f>
-        <v>90000</v>
+        <v>25500</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="21">
         <v>3</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="20">
-        <v>23</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="14">
+        <v>60</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="16">
         <v>5000</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="17">
         <f t="shared" si="0"/>
-        <v>115000</v>
+        <v>300000</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="21">
         <v>4</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="20">
+      <c r="B22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14">
         <v>7</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="16">
         <v>18000</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="17">
         <f t="shared" si="0"/>
         <v>126000</v>
       </c>
@@ -1051,22 +1034,22 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:10" s="10" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="A23" s="21">
         <v>5</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="20">
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14">
         <v>7</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="16">
         <v>9000</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>63000</v>
       </c>
@@ -1074,43 +1057,43 @@
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:10" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+      <c r="A24" s="21">
         <v>6</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="20">
-        <v>21</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="B24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="14">
+        <v>23</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="16">
         <v>6500</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="17">
         <f t="shared" si="0"/>
-        <v>136500</v>
+        <v>149500</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12">
         <f t="shared" ref="I24:I25" si="1">H24*1.17</f>
         <v>0</v>
       </c>
-      <c r="J24" s="31"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="26">
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="20">
         <f>SUM(F19:F24)</f>
-        <v>710500</v>
+        <v>844000</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
@@ -1118,16 +1101,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="17">
-        <v>699820</v>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="20">
+        <v>500000</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6">
@@ -1135,17 +1118,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="18">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="20">
         <f>F25-F26</f>
-        <v>10680</v>
+        <v>344000</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6">
@@ -1153,29 +1136,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I31" s="6"/>
+      <c r="I31" s="6">
+        <f t="shared" ref="I31:I44" si="3">H31*1.17</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I32" s="6">
-        <f t="shared" ref="I32:I45" si="3">H32*1.17</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1191,16 +1172,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="I35" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>4</v>
-      </c>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I36" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1250,12 +1231,6 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I44" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
